--- a/PlayfairChiper_Cintia_V3921005.xlsx
+++ b/PlayfairChiper_Cintia_V3921005.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\smt3\P Sistem Keamanan Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B96621-6CAB-4182-9007-74C59EF48794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0731A88-FEA9-4CC9-A703-9172C544327D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="151">
   <si>
     <t>D</t>
   </si>
@@ -297,9 +297,6 @@
     <t>warna orange : ciphertext</t>
   </si>
   <si>
-    <t>ciphertext : DE</t>
-  </si>
-  <si>
     <t>Kata Kunci : Madiun</t>
   </si>
   <si>
@@ -336,9 +333,6 @@
     <t>NT -&gt;</t>
   </si>
   <si>
-    <t>ciphertext : PF</t>
-  </si>
-  <si>
     <t>IA -&gt;</t>
   </si>
   <si>
@@ -348,81 +342,39 @@
     <t>DW-&gt;</t>
   </si>
   <si>
-    <t>Chipertext : CD</t>
-  </si>
-  <si>
     <t>Warna orange : plaintext</t>
   </si>
   <si>
     <t>IC-&gt;</t>
   </si>
   <si>
-    <t>chipertext : ED</t>
-  </si>
-  <si>
     <t>HR-&gt;</t>
   </si>
   <si>
-    <t>Chipertext : QK</t>
-  </si>
-  <si>
     <t>IS-&gt;</t>
   </si>
   <si>
-    <t>Chipertext : EX</t>
-  </si>
-  <si>
-    <t>Chipertext : US</t>
-  </si>
-  <si>
     <t>NA -&gt;</t>
   </si>
   <si>
     <t>WA -&gt;</t>
   </si>
   <si>
-    <t>Chipertext : VD</t>
-  </si>
-  <si>
-    <t>Chipertext : MB</t>
-  </si>
-  <si>
-    <t>Chipertext : PF</t>
-  </si>
-  <si>
-    <t>Maka hasil ciphertextnya adalah DE PF UD CD ED QK EX US MB VD US</t>
-  </si>
-  <si>
     <t>Plaintext : DE PF UD CD ED QK EX US MB VD US</t>
   </si>
   <si>
     <t>DE</t>
   </si>
   <si>
-    <t>PF</t>
-  </si>
-  <si>
     <t>UD</t>
   </si>
   <si>
-    <t>CD</t>
-  </si>
-  <si>
     <t>ED</t>
   </si>
   <si>
-    <t>QK</t>
-  </si>
-  <si>
-    <t>EX</t>
-  </si>
-  <si>
     <t>MB</t>
   </si>
   <si>
-    <t>VD</t>
-  </si>
-  <si>
     <t>DE -&gt;</t>
   </si>
   <si>
@@ -441,52 +393,88 @@
     <t>Chipertext : IA</t>
   </si>
   <si>
-    <t>CD-&gt;</t>
-  </si>
-  <si>
     <t>Chipertext : DW</t>
   </si>
   <si>
-    <t>ED -&gt;</t>
-  </si>
-  <si>
     <t>chipertext : IC</t>
   </si>
   <si>
-    <t>QK-&gt;</t>
-  </si>
-  <si>
     <t>Chipertext : HR</t>
   </si>
   <si>
-    <t>EX-&gt;</t>
-  </si>
-  <si>
     <t>Chipertext : IS</t>
   </si>
   <si>
-    <t>US-&gt;</t>
-  </si>
-  <si>
     <t>chipertext : TI</t>
   </si>
   <si>
-    <t>MB -&gt;</t>
-  </si>
-  <si>
     <t>Chipertext : NA</t>
   </si>
   <si>
-    <t xml:space="preserve">VD -&gt; </t>
-  </si>
-  <si>
     <t>Chipertext : WA</t>
   </si>
   <si>
-    <t xml:space="preserve">US-&gt; </t>
-  </si>
-  <si>
     <t>Maka hasil ciphertextnya adalah CI NT IA DW IC HR IS TI NA WA TI</t>
+  </si>
+  <si>
+    <t>Chipertext : AX</t>
+  </si>
+  <si>
+    <t>Maka hasil ciphertextnya adalah ED FP UD AX DE KQ EY SU BM AB SU</t>
+  </si>
+  <si>
+    <t>Chipertext : FP</t>
+  </si>
+  <si>
+    <t>ciphertext : ED</t>
+  </si>
+  <si>
+    <t>chipertext : DE</t>
+  </si>
+  <si>
+    <t>Chipertext : KQ</t>
+  </si>
+  <si>
+    <t>Chipertext : SU</t>
+  </si>
+  <si>
+    <t>Chipertext : BM</t>
+  </si>
+  <si>
+    <t>Chipertext : AB</t>
+  </si>
+  <si>
+    <t>Chipertext : EY</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>AX-&gt;</t>
+  </si>
+  <si>
+    <t>KQ-&gt;</t>
+  </si>
+  <si>
+    <t>EY-&gt;</t>
+  </si>
+  <si>
+    <t>KQ</t>
+  </si>
+  <si>
+    <t>SU-&gt;</t>
+  </si>
+  <si>
+    <t>BM -&gt;</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB-&gt; </t>
   </si>
 </sst>
 </file>
@@ -699,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -748,6 +736,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1088,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:W52"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45:E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,7 +1115,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
@@ -1136,7 +1125,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -1292,19 +1281,19 @@
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
@@ -1358,31 +1347,31 @@
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="D21" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="E21" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="F21" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="G21" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="H21" s="13" t="s">
         <v>99</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>100</v>
       </c>
       <c r="I21" s="13" t="s">
         <v>80</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K21" s="13" t="s">
         <v>79</v>
@@ -1415,7 +1404,7 @@
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>0</v>
@@ -1424,7 +1413,7 @@
         <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>2</v>
@@ -1442,7 +1431,7 @@
         <v>12</v>
       </c>
       <c r="M25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>17</v>
@@ -1500,91 +1489,90 @@
         <v>20</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="G28" s="28" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="M29" t="s">
-        <v>107</v>
-      </c>
-      <c r="N29" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="P29" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="S29" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="19"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P30" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="S30" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="20"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="F31" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
       <c r="N31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="S31" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="21"/>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="19"/>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="N33" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P33" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="S33" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="20"/>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="S34" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="O33" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>0</v>
@@ -1593,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G35" s="13" t="s">
         <v>14</v>
@@ -1602,12 +1590,12 @@
         <v>15</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C36" s="13" t="s">
         <v>10</v>
       </c>
@@ -1621,9 +1609,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="J37" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K37" s="13" t="s">
         <v>6</v>
@@ -1638,7 +1626,7 @@
         <v>7</v>
       </c>
       <c r="Q37" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R37" s="9" t="s">
         <v>17</v>
@@ -1647,14 +1635,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="F38" s="10" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
@@ -1674,7 +1662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K39" s="1" t="s">
         <v>16</v>
       </c>
@@ -1685,7 +1673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K40" s="13" t="s">
         <v>8</v>
       </c>
@@ -1696,116 +1684,116 @@
         <v>20</v>
       </c>
       <c r="R40" s="10" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="S40" s="10"/>
       <c r="T40" s="10"/>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K41" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="N42" s="10" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="J43" s="10" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="E45" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" t="s">
         <v>81</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="I45" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="J45" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="1" t="s">
+      <c r="E46" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="1" t="s">
+      <c r="E47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="J47" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C48" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="9" t="s">
+      <c r="E48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="13" t="s">
+      <c r="J48" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C49" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" s="13" t="s">
+      <c r="C49" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F49" s="10"/>
-      <c r="G49" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
+      <c r="E49" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="32"/>
+      <c r="I49" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="27" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -1835,7 +1823,7 @@
   <dimension ref="A2:AF42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+      <selection activeCell="AC36" sqref="AC36:AF37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1872,7 +1860,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -1883,7 +1871,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -2035,24 +2023,24 @@
       <c r="U16" s="29"/>
       <c r="V16" s="29"/>
     </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:32" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="M18" s="29" t="s">
         <v>86</v>
       </c>
@@ -2066,7 +2054,7 @@
       <c r="U18" s="29"/>
       <c r="V18" s="29"/>
     </row>
-    <row r="19" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>87</v>
       </c>
@@ -2089,7 +2077,7 @@
       <c r="U19" s="29"/>
       <c r="V19" s="29"/>
     </row>
-    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="M20" s="29"/>
       <c r="N20" s="29"/>
       <c r="O20" s="29"/>
@@ -2101,36 +2089,36 @@
       <c r="U20" s="29"/>
       <c r="V20" s="29"/>
     </row>
-    <row r="21" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>38</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="L21" s="10" t="s">
         <v>38</v>
@@ -2146,7 +2134,7 @@
       <c r="U21" s="29"/>
       <c r="V21" s="29"/>
     </row>
-    <row r="22" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="M22" s="29"/>
       <c r="N22" s="29"/>
       <c r="O22" s="29"/>
@@ -2158,9 +2146,9 @@
       <c r="U22" s="29"/>
       <c r="V22" s="29"/>
     </row>
-    <row r="24" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>0</v>
@@ -2169,7 +2157,7 @@
         <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>2</v>
@@ -2187,7 +2175,7 @@
         <v>12</v>
       </c>
       <c r="M24" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="N24" s="13" t="s">
         <v>4</v>
@@ -2202,25 +2190,25 @@
         <v>7</v>
       </c>
       <c r="S24" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="T24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="U24" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="V24" s="13" t="s">
+      <c r="Y24" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z24" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="X24" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y24" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="9" t="s">
+      <c r="AA24" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C25" s="13" t="s">
         <v>10</v>
       </c>
@@ -2242,26 +2230,20 @@
       <c r="K25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="T25" s="9" t="s">
+      <c r="T25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="V25" s="11" t="s">
+      <c r="Z25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Y25" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z25" s="13" t="s">
+      <c r="AA25" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AC25" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD25" s="15"/>
-      <c r="AE25" s="15"/>
-      <c r="AF25" s="19"/>
-    </row>
-    <row r="26" spans="2:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="G26" s="9" t="s">
         <v>18</v>
       </c>
@@ -2278,69 +2260,57 @@
         <v>20</v>
       </c>
       <c r="N26" s="22" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
       <c r="T26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC26" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="20"/>
-    </row>
-    <row r="27" spans="2:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C27" s="22" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D27" s="22"/>
       <c r="T27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X27" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y27" s="22"/>
+      <c r="Y27" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="Z27" s="22"/>
-      <c r="AC27" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD27" s="14"/>
-      <c r="AE27" s="14"/>
-      <c r="AF27" s="21"/>
-    </row>
-    <row r="28" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AA27" s="22"/>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="G28" s="22" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
       <c r="T28" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="V28" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="U28" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="T30" s="22" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="U30" s="22"/>
       <c r="V30" s="22"/>
     </row>
-    <row r="32" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>14</v>
@@ -2364,7 +2334,7 @@
         <v>7</v>
       </c>
       <c r="N32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O32" s="9" t="s">
         <v>17</v>
@@ -2373,16 +2343,16 @@
         <v>4</v>
       </c>
       <c r="R32" t="s">
-        <v>151</v>
-      </c>
-      <c r="S32" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="S32" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="T32" s="9" t="s">
-        <v>0</v>
+      <c r="U32" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="V32" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="W32" s="13" t="s">
         <v>6</v>
@@ -2391,7 +2361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C33" s="9" t="s">
         <v>19</v>
       </c>
@@ -2413,11 +2383,11 @@
       <c r="P33" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="S33" s="1" t="s">
+      <c r="S33" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="T33" s="1" t="s">
-        <v>10</v>
+      <c r="U33" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="W33" s="1" t="s">
         <v>11</v>
@@ -2426,7 +2396,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.25">
       <c r="H34" s="1" t="s">
         <v>16</v>
       </c>
@@ -2439,8 +2409,8 @@
       <c r="S34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T34" s="1" t="s">
-        <v>15</v>
+      <c r="U34" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="W34" s="1" t="s">
         <v>16</v>
@@ -2448,10 +2418,16 @@
       <c r="X34" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AC34" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="15"/>
+      <c r="AF34" s="19"/>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C35" s="22" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -2465,15 +2441,15 @@
         <v>20</v>
       </c>
       <c r="N35" s="22" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="O35" s="22"/>
       <c r="P35" s="22"/>
       <c r="S35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T35" s="1" t="s">
-        <v>5</v>
+      <c r="U35" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="W35" s="9" t="s">
         <v>8</v>
@@ -2481,43 +2457,55 @@
       <c r="X35" s="13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AC35" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD35" s="12"/>
+      <c r="AE35" s="12"/>
+      <c r="AF35" s="20"/>
+    </row>
+    <row r="36" spans="2:32" x14ac:dyDescent="0.25">
       <c r="H36" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="S36" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="T36" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="S36" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="U36" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC36" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD36" s="14"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="21"/>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.25">
       <c r="K37" s="22" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="L37" s="22"/>
       <c r="W37" s="22" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="X37" s="22"/>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.25">
       <c r="G38" s="22" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="H38" s="22"/>
       <c r="I38" s="22"/>
       <c r="S38" s="22" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="T38" s="22"/>
       <c r="U38" s="22"/>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B42" s="22" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
